--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2141206.444457148</v>
+        <v>2247265.297356253</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>612367.9462114751</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5949851.701687478</v>
+        <v>6362636.254794019</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>30.49859044677629</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>61.03269750657452</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.470219891886</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -871,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>103.8171286208075</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>170.2553066834602</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -962,7 +964,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>155.8893233795038</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1056,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>20.91700401102371</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>106.4996628416748</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -1120,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>14.94721823158767</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>181.1434624630639</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>136.7698321144741</v>
+        <v>127.800783542038</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1306,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,13 +1350,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>213.2225417474566</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>97.60112162899995</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>161.6737988100371</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>389.9097911531585</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717970187</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>165.7104322459758</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>108.3150987014961</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>75.30362264056821</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969425</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>160.9061021023286</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>75.25534642053162</v>
       </c>
       <c r="C22" t="n">
-        <v>68.69324378974208</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2293,7 +2295,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.6429778048368</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2536,13 +2538,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,13 +2715,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>169.635619496739</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>148.1612423902099</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.3509450707813</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3433,10 +3435,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>66.82300722904168</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>71.04375511693296</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>129.7382093315754</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3752,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>118.5661888200114</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3898,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>84.56902831273716</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>19.64740624208219</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3986,16 +3988,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>23.92321040305947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>9.919095082966686</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>170.5586896897042</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.947823099961</v>
+        <v>168.7534004685691</v>
       </c>
       <c r="C2" t="n">
-        <v>1354.087497153665</v>
+        <v>145.8930745222733</v>
       </c>
       <c r="D2" t="n">
-        <v>930.7948763386659</v>
+        <v>126.6408577476777</v>
       </c>
       <c r="E2" t="n">
-        <v>908.8583405269275</v>
+        <v>104.7043219359393</v>
       </c>
       <c r="F2" t="n">
-        <v>483.7341587163277</v>
+        <v>73.89766491899353</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074144</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="L2" t="n">
-        <v>1100.603903091853</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="M2" t="n">
-        <v>1100.603903091853</v>
+        <v>977.228916131015</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1456.167840373443</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>2163.262063061796</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1805.772648188046</v>
+        <v>993.9695752563066</v>
       </c>
       <c r="W2" t="n">
-        <v>1805.772648188046</v>
+        <v>597.5782255566535</v>
       </c>
       <c r="X2" t="n">
-        <v>1394.052649355793</v>
+        <v>589.8986307648048</v>
       </c>
       <c r="Y2" t="n">
-        <v>1392.755783351087</v>
+        <v>184.5613607196951</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115937</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>602.6104029955975</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="M3" t="n">
-        <v>1153.275937980036</v>
+        <v>796.7851917762484</v>
       </c>
       <c r="N3" t="n">
-        <v>1302.520320645319</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>1853.185855629757</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="P3" t="n">
-        <v>1853.185855629757</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>811.9105159605548</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>811.9105159605548</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>648.5937430873255</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>482.385537240179</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>1691.767416841771</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.67598879661</v>
+        <v>1586.901630356107</v>
       </c>
       <c r="W4" t="n">
-        <v>1419.67598879661</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>1177.112092242415</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>950.7693239321568</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4568,25 +4570,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4610,7 +4612,7 @@
         <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>2059.767694660928</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4650,22 +4652,22 @@
         <v>51.94486801115937</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1699405917395</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1699405917395</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>669.8354755761777</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.9200589091692</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="C7" t="n">
-        <v>473.7917720293473</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4726,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>1947.200787969719</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>1667.016339470023</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>1385.304872078052</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1110.452468250565</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>867.88857169637</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.0860276212348</v>
+        <v>641.5458033861121</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>972.9074190595572</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>546.0066890728574</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D8" t="n">
-        <v>122.7140682578577</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>100.7775324461193</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>79.69375467592363</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4805,19 +4807,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>455.3583126271592</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1006.023847611597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
         <v>2107.354917580474</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>2209.81305222845</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.81305222845</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.093053396197</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1392.755783351087</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>874.3078922751886</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1220.501010560616</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>927.6499241754298</v>
+        <v>946.7665737820055</v>
       </c>
       <c r="C10" t="n">
-        <v>927.6499241754298</v>
+        <v>774.7940106609215</v>
       </c>
       <c r="D10" t="n">
-        <v>764.3331513022005</v>
+        <v>611.4772377876922</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>927.6499241754298</v>
+        <v>1136.932542494071</v>
       </c>
       <c r="Y10" t="n">
-        <v>927.6499241754298</v>
+        <v>1136.932542494071</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1017.162767485248</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1017.162767485248</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>801.7864626898377</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>801.7864626898377</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898377</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792862</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>99.579021753321</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>64.68215049679216</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>865.1237628945952</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1665.565375292398</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>2466.006987690201</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2650.459750353794</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2254.068400654141</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>1842.348401821888</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>1437.011131776778</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.128793458704</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.128793458704</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>662.6137200270435</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.928168679499</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.928168679499</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N12" t="n">
-        <v>1072.928168679499</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>344.6859734421186</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>200.8897049502729</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2081.788310425035</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2081.788310425035</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2081.788310425035</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>2081.788310425035</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1806.935906597548</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043353</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1639.712476796965</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1245.864202904886</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>822.5715820898861</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>822.5715820898861</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>397.4474002792862</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>397.4474002792862</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679216</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L14" t="n">
-        <v>715.2263527642963</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M14" t="n">
-        <v>1515.667965162099</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559902</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2876.618109965857</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2876.618109965857</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2464.898111133605</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2059.560841088495</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679216</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679216</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>608.7826918167195</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>1409.224304214523</v>
+        <v>1782.102586447038</v>
       </c>
       <c r="O15" t="n">
-        <v>1409.224304214523</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1409.224304214523</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.863273021029</v>
+        <v>684.0483191256287</v>
       </c>
       <c r="C16" t="n">
-        <v>975.890709899945</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="D16" t="n">
-        <v>812.5739370267157</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E16" t="n">
-        <v>646.3657311795693</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5039569541297</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G16" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597091</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.056564597091</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2198.056564597091</v>
+        <v>1898.15780502933</v>
       </c>
       <c r="U16" t="n">
-        <v>2198.056564597091</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="V16" t="n">
-        <v>1916.345097205119</v>
+        <v>1617.973356529634</v>
       </c>
       <c r="W16" t="n">
-        <v>1806.935906597548</v>
+        <v>1343.120952702147</v>
       </c>
       <c r="X16" t="n">
-        <v>1564.372010043353</v>
+        <v>1100.557056147952</v>
       </c>
       <c r="Y16" t="n">
-        <v>1338.029241733095</v>
+        <v>874.2142878376944</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,22 +5518,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N17" t="n">
-        <v>3375.06837974776</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4220.213029898572</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5555,10 +5557,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5600,16 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="M18" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="N18" t="n">
-        <v>692.7876399741681</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="O18" t="n">
-        <v>1582.26891798564</v>
+        <v>1529.586448057074</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>516.5477476675622</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808982</v>
+        <v>344.5751845464782</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357522</v>
+        <v>344.5751845464782</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>178.3669786993318</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5686,37 +5688,37 @@
         <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656292</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578193</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818955</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818955</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818955</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044854</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044854</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V19" t="n">
-        <v>2039.376393044854</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W19" t="n">
-        <v>1764.523989217367</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778202</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675622</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5795,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1165.735894343786</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.604840768015</v>
+        <v>440.5322462326804</v>
       </c>
       <c r="C22" t="n">
-        <v>584.2177258288816</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D22" t="n">
-        <v>584.2177258288816</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E22" t="n">
-        <v>584.2177258288816</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5914,46 +5916,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302474</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U22" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V22" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W22" t="n">
-        <v>1312.677474344533</v>
+        <v>985.4544125320137</v>
       </c>
       <c r="X22" t="n">
-        <v>1070.113577790339</v>
+        <v>742.8905159778188</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.7708094800807</v>
+        <v>516.5477476675609</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1307.345429672325</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1307.345429672325</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.4203922683193</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>202.0712816655526</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>202.0712816655526</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6463,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M29" t="n">
-        <v>2856.963518260713</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
         <v>3833.214576747414</v>
@@ -6537,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>109.7493563677404</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>109.7493563677404</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O30" t="n">
-        <v>999.230634379212</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P30" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2002.531292319261</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.81982492729</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1720.81982492729</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1478.255928373095</v>
+        <v>835.7965919358394</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>609.4538236255814</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M32" t="n">
-        <v>2184.700581617281</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N32" t="n">
-        <v>3160.951640103982</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O32" t="n">
-        <v>4006.096290254794</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787244</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,7 +6785,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M33" t="n">
         <v>821.6753975134684</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402536</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281452</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>5115.135670291427</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>4951.828802806542</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>4676.976398979054</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>4434.41250242486</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>4208.069734114601</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
@@ -6926,46 +6928,46 @@
         <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>533.9931985757484</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.618246195025</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>2467.904347614083</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3444.155406100784</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4289.300056251596</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>4362.434577686963</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>4362.434577686963</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>5115.135670291426</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291426</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402535</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281451</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408221</v>
+        <v>579.5737431045868</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561075</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335635</v>
+        <v>413.3655372574403</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629867</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138022</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291426</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>5115.135670291426</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>5115.135670291426</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4951.828802806541</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>4676.976398979054</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.412502424859</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
         <v>3833.214576747414</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L39" t="n">
-        <v>964.4851292537592</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M39" t="n">
-        <v>964.4851292537592</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N39" t="n">
-        <v>964.4851292537592</v>
+        <v>4143.635082195253</v>
       </c>
       <c r="O39" t="n">
-        <v>1853.966407265231</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.966407265231</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S39" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T39" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U39" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V39" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W39" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3582.845861148498</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C40" t="n">
-        <v>3582.845861148498</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D40" t="n">
-        <v>3582.845861148498</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E40" t="n">
-        <v>3416.637655301352</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F40" t="n">
-        <v>3244.775881075912</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>3078.518911370144</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
         <v>2934.722642878299</v>
@@ -7357,25 +7359,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.000622810562</v>
+        <v>5115.13567029143</v>
       </c>
       <c r="T40" t="n">
-        <v>4701.661275036462</v>
+        <v>5115.13567029143</v>
       </c>
       <c r="U40" t="n">
-        <v>4421.476826536767</v>
+        <v>5115.13567029143</v>
       </c>
       <c r="V40" t="n">
-        <v>4290.428130242246</v>
+        <v>4833.424202899459</v>
       </c>
       <c r="W40" t="n">
-        <v>4015.575726414759</v>
+        <v>4558.571799071971</v>
       </c>
       <c r="X40" t="n">
-        <v>3773.011829860564</v>
+        <v>4316.007902517777</v>
       </c>
       <c r="Y40" t="n">
-        <v>3773.011829860564</v>
+        <v>4089.665134207518</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1671.841142757028</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1671.841142757028</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1248.548521942028</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>822.5715820898859</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>397.4474002792861</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1142.793917289187</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1943.23552968699</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2743.677142084793</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O41" t="n">
-        <v>2778.022045335425</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839608</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.181953884241</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.181953884241</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2893.418126793321</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2497.026777093668</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2497.026777093668</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2091.689507048558</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.128793458704</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>72.128793458704</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K42" t="n">
-        <v>72.128793458704</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4865562816958</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>795.2884328564098</v>
+        <v>601.2341827829796</v>
       </c>
       <c r="C43" t="n">
-        <v>709.8651719344531</v>
+        <v>429.2616196618956</v>
       </c>
       <c r="D43" t="n">
-        <v>546.5483990612238</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="E43" t="n">
-        <v>380.3401932140773</v>
+        <v>265.9448467886663</v>
       </c>
       <c r="F43" t="n">
-        <v>208.4784189886378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886378</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2027.921517116229</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1784.582169342129</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1784.582169342129</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1502.870701950157</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>1228.01829812267</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="X43" t="n">
-        <v>985.4544015684754</v>
+        <v>1017.742919805303</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.4544015684754</v>
+        <v>791.4001514950452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1342.455632567475</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1342.455632567475</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>919.1630117524753</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>493.1860719003329</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68215049679216</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L44" t="n">
-        <v>64.68215049679216</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>865.1237628945952</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>1665.565375292398</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>2466.006987690201</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3174.286266848129</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2975.75261543602</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2975.75261543602</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2579.361265736367</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2167.641266904115</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1762.303996859005</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679216</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679216</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679216</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679216</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="M45" t="n">
-        <v>865.1237628945952</v>
+        <v>3578.14552899051</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.565375292398</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>4667.46047546338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5033.116360206724</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.1391771333831</v>
+        <v>3918.135197142812</v>
       </c>
       <c r="C46" t="n">
-        <v>407.1666140122991</v>
+        <v>3746.162634021728</v>
       </c>
       <c r="D46" t="n">
-        <v>407.1666140122991</v>
+        <v>3582.845861148498</v>
       </c>
       <c r="E46" t="n">
-        <v>240.9584081651526</v>
+        <v>3416.637655301352</v>
       </c>
       <c r="F46" t="n">
-        <v>240.9584081651526</v>
+        <v>3244.775881075912</v>
       </c>
       <c r="G46" t="n">
-        <v>74.70143845938478</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68215049679216</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679216</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267874</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.77568192936</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.064214537389</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="W46" t="n">
-        <v>1238.211810709902</v>
+        <v>4316.759470190144</v>
       </c>
       <c r="X46" t="n">
-        <v>995.6479141557066</v>
+        <v>4144.477965453069</v>
       </c>
       <c r="Y46" t="n">
-        <v>769.3051458454487</v>
+        <v>3918.135197142812</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>546.3101998434627</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>501.6614210774818</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884139</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>172.0949298956461</v>
+        <v>505.1197193675095</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>131.7781250670417</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8149,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>94.6403295087156</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>90.41920043198729</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>259.4889279983319</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8453,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>450.7747902674474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828693</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8535,22 +8537,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>372.7867989824566</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443481</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>694.506315181786</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>436.9741257571137</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>831.6987709321243</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L14" t="n">
-        <v>695.4273982583846</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>572.693286896093</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234437</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>153.3615438023236</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9164,13 +9166,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9246,7 +9248,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9255,10 +9257,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>353.8126856499787</v>
+        <v>407.0273017394389</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9474,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>153.2864345924293</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>693.1063741240905</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>574.2427960500296</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>656.0343783945846</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M29" t="n">
-        <v>791.8999401147988</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>473.9064298354822</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>697.124756287453</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>105.9095497086638</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,10 +10433,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
@@ -10586,13 +10588,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>105.5494758988743</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10604,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10674,16 +10676,16 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>312.8133471445368</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661244</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
-        <v>866.431015736377</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10899,19 +10901,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>21.73518417458029</v>
       </c>
       <c r="O39" t="n">
         <v>921.6378271075471</v>
@@ -10920,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>80.34697437090524</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>72.08278082130929</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,13 +11144,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>224.8966653233122</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222301</v>
+        <v>445.5991972680949</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234437</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,10 +11159,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443481</v>
+        <v>751.2280472965118</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>96.55018772730445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,22 +11384,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222301</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234437</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>233.0753299089938</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>392.0964168176092</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>205.8371528593931</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924947</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.169760948126836</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.759898196019378</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>32.72193153367441</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>75.19552205038323</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>163.788781087716</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>94.83953384261697</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>79.23215548632436</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>113.0089626044134</v>
       </c>
       <c r="C22" t="n">
-        <v>101.5595937001311</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24136,13 +24138,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.62133122010819</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6172179931341191</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>91.97701519844301</v>
       </c>
       <c r="Y31" t="n">
-        <v>23.72839555637404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.7713927796685</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>117.220553908012</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>149.156143386476</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>235.3483319050016</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>85.68380917713598</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.495750241103</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>396.9497295894342</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>132.4392107239605</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26071,22 +26073,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>69.57956789894868</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>556004.7943837683</v>
+        <v>554518.7706442693</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>406726.6795111139</v>
+        <v>548510.3496981068</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>406726.6795111138</v>
+        <v>548510.3496981068</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>548510.3496981068</v>
+        <v>548510.3496981069</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>548510.3496981068</v>
+        <v>548510.3496981069</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>406726.679511114</v>
+        <v>548510.3496981068</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>406726.679511114</v>
+        <v>548510.3496981068</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>480515.2011092094</v>
       </c>
       <c r="C2" t="n">
-        <v>480515.2011092096</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
         <v>480515.2011092094</v>
       </c>
       <c r="E2" t="n">
-        <v>343829.0724022653</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="F2" t="n">
-        <v>343829.0724022653</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="G2" t="n">
-        <v>463675.0825883937</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="I2" t="n">
         <v>463675.0825883938</v>
@@ -26338,22 +26340,22 @@
         <v>463675.0825883938</v>
       </c>
       <c r="K2" t="n">
-        <v>463675.0825883937</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
+        <v>463675.0825883939</v>
+      </c>
+      <c r="M2" t="n">
         <v>463675.0825883938</v>
-      </c>
-      <c r="M2" t="n">
-        <v>463675.0825883939</v>
       </c>
       <c r="N2" t="n">
         <v>463675.0825883939</v>
       </c>
       <c r="O2" t="n">
-        <v>343829.0724022654</v>
+        <v>463675.0825883941</v>
       </c>
       <c r="P2" t="n">
-        <v>343829.0724022654</v>
+        <v>463675.0825883938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346226</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537387</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156753.0758057354</v>
+        <v>171848.3668116666</v>
       </c>
       <c r="C4" t="n">
         <v>156753.0758057354</v>
@@ -26424,16 +26426,16 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>21799.09004189539</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="F4" t="n">
-        <v>21799.09004189539</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.28705591143</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="H4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="I4" t="n">
         <v>29432.2870559115</v>
@@ -26442,7 +26444,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="L4" t="n">
         <v>29432.2870559115</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>21799.09004189546</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="P4" t="n">
-        <v>21799.09004189546</v>
+        <v>29432.2870559115</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69911.14085130868</v>
+        <v>83500.91540579038</v>
       </c>
       <c r="C6" t="n">
-        <v>256315.8742660461</v>
+        <v>232909.0405924336</v>
       </c>
       <c r="D6" t="n">
-        <v>256315.874266046</v>
+        <v>256315.8742660459</v>
       </c>
       <c r="E6" t="n">
-        <v>197540.5968293456</v>
+        <v>140753.3767874122</v>
       </c>
       <c r="F6" t="n">
-        <v>272871.5479828079</v>
+        <v>356492.7333440529</v>
       </c>
       <c r="G6" t="n">
-        <v>227602.3335325121</v>
+        <v>356492.7333440527</v>
       </c>
       <c r="H6" t="n">
-        <v>356492.7333440526</v>
+        <v>356492.7333440527</v>
       </c>
       <c r="I6" t="n">
         <v>356492.7333440526</v>
       </c>
       <c r="J6" t="n">
-        <v>210959.0634092361</v>
+        <v>229915.4647637639</v>
       </c>
       <c r="K6" t="n">
-        <v>356492.7333440525</v>
+        <v>337846.1329870328</v>
       </c>
       <c r="L6" t="n">
-        <v>356492.7333440526</v>
+        <v>356492.7333440527</v>
       </c>
       <c r="M6" t="n">
-        <v>293618.7963786789</v>
+        <v>176428.861888885</v>
       </c>
       <c r="N6" t="n">
         <v>356492.7333440527</v>
       </c>
       <c r="O6" t="n">
-        <v>272871.547982808</v>
+        <v>356492.7333440529</v>
       </c>
       <c r="P6" t="n">
-        <v>272871.5479828079</v>
+        <v>356492.7333440526</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943077</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,16 +27384,16 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>390.3743495457175</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>194.7386628029773</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.794089133059</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>173.5654753938913</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>245.3945739651546</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27682,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.3945739651547</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>149.3358334788495</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27789,7 +27791,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>134.4062914546842</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>338.9673024934253</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>226.4593363808663</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>27.77629167420088</v>
+        <v>36.74534024663697</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -28099,16 +28101,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.200438154278777e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8.313350008393172e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28758,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-2.463088226354505e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28867,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8.988773068867788e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>510.5455990486533</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>464.23015817805</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>150.7519016821045</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>108.6062353448195</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>72.14114201029115</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>67.90411371775774</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>238.1458997847902</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>444.605878150503</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>349.6900184701286</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>657.1153558257619</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>414.4590390428842</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L14" t="n">
-        <v>657.1153558257618</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>549.596506383765</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099021</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35966,7 +35968,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,10 +35977,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>332.04184444515</v>
+        <v>385.2564605346102</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36054,7 +36056,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>359.018311797738</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36194,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>130.1896540801013</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>669.9344844018683</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36284,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115391</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M29" t="n">
-        <v>754.4686772153671</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>452.1355886306535</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>659.5493944772218</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>69.78487510406572</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
@@ -37306,13 +37308,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>69.78487510406498</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37324,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>118.7437726079824</v>
@@ -37394,16 +37396,16 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
-        <v>829.040056380353</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>0.3921559610386215</v>
       </c>
       <c r="O39" t="n">
         <v>898.4659373853249</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.59993608192674</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>34.69182146528519</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>202.3815786090827</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099021</v>
+        <v>422.5024167557669</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099021</v>
+        <v>713.9484244620658</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>60.42551312270641</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099021</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>209.9034401867715</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>369.3493785286307</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2247265.297356253</v>
+        <v>2246568.636151162</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114751</v>
+        <v>612367.9462114746</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>30.49859044677629</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>135.0628014675667</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -831,7 +831,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>103.8171286208075</v>
+        <v>48.10388305975325</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.2553066834602</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>413.974149318568</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1056,16 +1056,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>106.4996628416748</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0.8056189209971626</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>72.71756522150903</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>181.1434624630639</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1299,7 +1299,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>127.800783542038</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>21.38093498862404</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>97.60112162899995</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="T16" t="n">
-        <v>165.7104322459758</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>75.30362264056821</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969425</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2061,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188622</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.25534642053162</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>116.2748171257525</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2715,16 +2715,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>148.1612423902099</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>33.40145193727048</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>66.82300722904168</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.04375511693296</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>4.322062388460034</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3742,13 +3742,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3903,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.64740624208219</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.4442051068671</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3960,7 +3960,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.44420510686665</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>170.5586896897042</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685691</v>
+        <v>1775.192137383435</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222733</v>
+        <v>1348.291407396735</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476777</v>
+        <v>924.9987865817358</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359393</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
         <v>73.89766491899353</v>
@@ -4330,52 +4330,52 @@
         <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347455</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347455</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>977.228916131015</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="N2" t="n">
-        <v>1456.167840373443</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="O2" t="n">
-        <v>1456.167840373443</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
         <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563066</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566535</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648048</v>
+        <v>1927.427169824022</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196951</v>
+        <v>1791.000097634561</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422927</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="L3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="M3" t="n">
-        <v>796.7851917762484</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="O3" t="n">
-        <v>1383.244289010048</v>
+        <v>904.3053647676197</v>
       </c>
       <c r="P3" t="n">
         <v>1383.244289010048</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>955.6262881107865</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954703</v>
+        <v>783.6537249897025</v>
       </c>
       <c r="D4" t="n">
-        <v>786.593921822241</v>
+        <v>620.3369521164732</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>454.1287462693267</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="G4" t="n">
         <v>282.2669720438871</v>
@@ -4488,25 +4488,25 @@
         <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>1068.596180986984</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1446.08769186302</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615871</v>
@@ -4515,25 +4515,25 @@
         <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841771</v>
+        <v>1521.632369360906</v>
       </c>
       <c r="U4" t="n">
-        <v>1586.901630356107</v>
+        <v>1473.042588492468</v>
       </c>
       <c r="V4" t="n">
-        <v>1586.901630356107</v>
+        <v>1473.042588492468</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>1198.190184664981</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>955.6262881107865</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>955.6262881107865</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2043.959734409802</v>
+        <v>1334.229718373682</v>
       </c>
       <c r="C5" t="n">
-        <v>2021.099408463506</v>
+        <v>907.3289883869822</v>
       </c>
       <c r="D5" t="n">
-        <v>1597.806787648507</v>
+        <v>888.0767716123866</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.829847796364</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4567,22 +4567,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>116.829168004879</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="N5" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
         <v>1768.825772958194</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>1351.334544629514</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>1350.037678624808</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>602.6104029955975</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M6" t="n">
-        <v>602.6104029955975</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>451.3798346740465</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C7" t="n">
-        <v>451.3798346740465</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D7" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E7" t="n">
-        <v>288.0630618008172</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
         <v>288.0630618008172</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1947.200787969719</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1667.016339470023</v>
+        <v>2177.058882663693</v>
       </c>
       <c r="V7" t="n">
-        <v>1385.304872078052</v>
+        <v>1895.347415271722</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.452468250565</v>
+        <v>1620.495011444235</v>
       </c>
       <c r="X7" t="n">
-        <v>867.88857169637</v>
+        <v>1377.93111489004</v>
       </c>
       <c r="Y7" t="n">
-        <v>641.5458033861121</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>938.0105478030287</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163287</v>
+        <v>915.1502218567329</v>
       </c>
       <c r="D8" t="n">
-        <v>87.81719700132894</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4804,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O8" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1542.1289725064</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1542.1289725064</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.155778099264</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>756.3555336978366</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N9" t="n">
         <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>946.7665737820055</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7940106609215</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>611.4772377876922</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>482.385537240179</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>310.5237630147394</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4992,22 +4992,22 @@
         <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1136.932542494071</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1136.932542494071</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
         <v>839.4070255988738</v>
@@ -5050,16 +5050,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3959.47027938737</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4667.749558545297</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5077,16 +5077,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.289251381874</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N12" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>516.5477476675582</v>
+        <v>874.6155644060643</v>
       </c>
       <c r="C13" t="n">
-        <v>516.5477476675582</v>
+        <v>702.6430012849803</v>
       </c>
       <c r="D13" t="n">
-        <v>516.5477476675582</v>
+        <v>539.326228411751</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5477476675582</v>
+        <v>539.326228411751</v>
       </c>
       <c r="F13" t="n">
-        <v>344.6859734421186</v>
+        <v>367.4644541863114</v>
       </c>
       <c r="G13" t="n">
-        <v>344.6859734421186</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>200.8897049502729</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.5477476675582</v>
+        <v>1064.78153311813</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,25 +5281,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2129.375202991803</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5354,22 +5354,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>692.7876399741681</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N15" t="n">
-        <v>1782.102586447038</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O15" t="n">
         <v>1910.990343986338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.0483191256287</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C16" t="n">
-        <v>512.0757560045447</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D16" t="n">
-        <v>512.0757560045447</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E16" t="n">
-        <v>345.8675501573982</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F16" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G16" t="n">
         <v>345.8675501573982</v>
@@ -5460,28 +5460,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2126.267936898555</v>
       </c>
       <c r="T16" t="n">
-        <v>1898.15780502933</v>
+        <v>2126.267936898555</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.973356529634</v>
+        <v>2126.267936898555</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.973356529634</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W16" t="n">
-        <v>1343.120952702147</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X16" t="n">
-        <v>1100.557056147952</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2142878376944</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
@@ -5524,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5557,10 +5557,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O18" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675622</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464782</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>344.5751845464782</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>178.3669786993318</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5673,52 +5673,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299896</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358268</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302475</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025269</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251169</v>
+        <v>1869.241345563995</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751473</v>
+        <v>1589.056897064299</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359502</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.4544125320151</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778202</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675622</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1165.735894343786</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1165.735894343786</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.5322462326804</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5916,46 +5916,46 @@
         <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>741.0109641302474</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025268</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251168</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.4544125320137</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778188</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675609</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5992,10 +5992,10 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M23" t="n">
         <v>2011.818868109901</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>648.6278400003578</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6278400003578</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M24" t="n">
-        <v>648.6278400003578</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4092158344085</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="D25" t="n">
-        <v>102.3027134058285</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="E25" t="n">
-        <v>102.3027134058285</v>
+        <v>391.6137978593009</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>219.7520236338613</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6226,13 +6226,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
         <v>2011.818868109901</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>730.647150085061</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6539,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
         <v>1364.825557038856</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>609.4538236255814</v>
+        <v>756.1902889499656</v>
       </c>
       <c r="C31" t="n">
-        <v>437.4812605044974</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>835.7965919358394</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>609.4538236255814</v>
+        <v>756.1902889499656</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M32" t="n">
-        <v>2398.817321261059</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N32" t="n">
-        <v>3375.06837974776</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O32" t="n">
-        <v>4220.213029898572</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P32" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6776,31 +6776,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>154.4092158344085</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6943,13 +6943,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O35" t="n">
         <v>3833.214576747414</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>742.8905159778161</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>742.8905159778161</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>579.5737431045868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>413.3655372574403</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>413.3655372574403</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.8905159778161</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>4143.635082195253</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>5033.116360206724</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>5033.116360206724</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>616.7597400424231</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>444.7871769213391</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358274</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.13567029143</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.13567029143</v>
+        <v>2112.580693338095</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.13567029143</v>
+        <v>1832.3962448384</v>
       </c>
       <c r="V40" t="n">
-        <v>4833.424202899459</v>
+        <v>1550.684777446429</v>
       </c>
       <c r="W40" t="n">
-        <v>4558.571799071971</v>
+        <v>1275.832373618942</v>
       </c>
       <c r="X40" t="n">
-        <v>4316.007902517777</v>
+        <v>1033.268477064747</v>
       </c>
       <c r="Y40" t="n">
-        <v>4089.665134207518</v>
+        <v>806.9257087544888</v>
       </c>
     </row>
     <row r="41">
@@ -7390,10 +7390,10 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
         <v>1264.531207409474</v>
@@ -7411,28 +7411,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N41" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O41" t="n">
-        <v>4289.300056251597</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P41" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>946.5481644506465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.825557038856</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O42" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>601.2341827829796</v>
+        <v>543.5554397491876</v>
       </c>
       <c r="C43" t="n">
-        <v>429.2616196618956</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="D43" t="n">
-        <v>265.9448467886663</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="E43" t="n">
-        <v>265.9448467886663</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="F43" t="n">
-        <v>246.0989818976742</v>
+        <v>199.721102402664</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>199.721102402664</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>199.721102402664</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7590,31 +7590,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.37639304486</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W43" t="n">
-        <v>1260.306816359498</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.742919805303</v>
+        <v>960.0641767715111</v>
       </c>
       <c r="Y43" t="n">
-        <v>791.4001514950452</v>
+        <v>733.7214084612532</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q44" t="n">
         <v>5115.135670291427</v>
@@ -7690,10 +7690,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3578.14552899051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>3578.14552899051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>3578.14552899051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>3578.14552899051</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>4667.46047546338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>4667.46047546338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
-        <v>4667.46047546338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>5033.116360206724</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3918.135197142812</v>
+        <v>543.5554397491871</v>
       </c>
       <c r="C46" t="n">
-        <v>3746.162634021728</v>
+        <v>371.5828766281031</v>
       </c>
       <c r="D46" t="n">
-        <v>3582.845861148498</v>
+        <v>371.5828766281031</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.637655301352</v>
+        <v>371.5828766281031</v>
       </c>
       <c r="F46" t="n">
-        <v>3244.775881075912</v>
+        <v>199.7211024026635</v>
       </c>
       <c r="G46" t="n">
-        <v>3078.518911370144</v>
+        <v>199.7211024026635</v>
       </c>
       <c r="H46" t="n">
-        <v>2934.722642878299</v>
+        <v>199.7211024026635</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302472</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T46" t="n">
-        <v>4871.796322517327</v>
+        <v>2039.376393044859</v>
       </c>
       <c r="U46" t="n">
-        <v>4591.611874017632</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V46" t="n">
-        <v>4591.611874017632</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W46" t="n">
-        <v>4316.759470190144</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X46" t="n">
-        <v>4144.477965453069</v>
+        <v>960.0641767715107</v>
       </c>
       <c r="Y46" t="n">
-        <v>3918.135197142812</v>
+        <v>733.7214084612527</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>519.5412919487771</v>
@@ -7987,10 +7987,10 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>501.6614210774818</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884139</v>
+        <v>39.5841760018364</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -7999,10 +7999,10 @@
         <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
@@ -8069,13 +8069,13 @@
         <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>505.1197193675095</v>
+        <v>411.9130334992732</v>
       </c>
       <c r="O3" t="n">
-        <v>131.7781250670417</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587965</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8151,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>94.6403295087156</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178311</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8300,13 +8300,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>259.4889279983319</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,7 +8315,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>452.5855512828693</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>176.6411400339852</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.2860653765454</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>124.6357188072399</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>230.3933721714771</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9014,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>73.174855016566</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>153.3615438023236</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>653.6520906270367</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,13 +9245,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>574.9403427290242</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>407.0273017394389</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9418,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
         <v>20.61111433333334</v>
@@ -9488,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>693.1063741240905</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9640,13 +9640,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>574.2427960500296</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,19 +9965,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10132,7 +10132,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,28 +10187,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>229.9655591801901</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>312.8133471445368</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843319</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.73518417458029</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11071,19 +11071,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>394.7585026918616</v>
       </c>
       <c r="O41" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11144,25 +11144,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>445.5991972680949</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N44" t="n">
-        <v>751.2280472965118</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11317,7 +11317,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>35.03264989479647</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11387,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>392.0964168176092</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>143.2134650200861</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.169760948126836</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>13.55037112485869</v>
       </c>
       <c r="T16" t="n">
-        <v>75.19552205038323</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>94.83953384261697</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>71.98949189918915</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.0089626044134</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>48.31958288295772</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>91.97701519844301</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>190.6778886898849</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.7713927796685</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.220553908012</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.361542756037</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>150.495750241103</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>2.326677470259682</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>2.326677470260137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>69.57956789894868</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>548510.3496981068</v>
+        <v>548510.3496981069</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>548510.3496981069</v>
+        <v>548510.3496981068</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>548510.3496981068</v>
+        <v>548510.3496981069</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>548510.3496981068</v>
+        <v>548510.3496981069</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092092</v>
       </c>
       <c r="C2" t="n">
         <v>480515.2011092093</v>
       </c>
       <c r="D2" t="n">
-        <v>480515.2011092094</v>
+        <v>480515.2011092093</v>
       </c>
       <c r="E2" t="n">
         <v>463675.0825883939</v>
       </c>
       <c r="F2" t="n">
-        <v>463675.0825883941</v>
+        <v>463675.082588394</v>
       </c>
       <c r="G2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="H2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883938</v>
       </c>
       <c r="I2" t="n">
         <v>463675.0825883938</v>
@@ -26343,7 +26343,7 @@
         <v>463675.0825883938</v>
       </c>
       <c r="L2" t="n">
-        <v>463675.0825883939</v>
+        <v>463675.0825883937</v>
       </c>
       <c r="M2" t="n">
         <v>463675.0825883938</v>
@@ -26352,10 +26352,10 @@
         <v>463675.0825883939</v>
       </c>
       <c r="O2" t="n">
-        <v>463675.0825883941</v>
+        <v>463675.0825883939</v>
       </c>
       <c r="P2" t="n">
-        <v>463675.0825883938</v>
+        <v>463675.0825883939</v>
       </c>
     </row>
     <row r="3">
@@ -26426,13 +26426,13 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="F4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="G4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="H4" t="n">
         <v>29432.2870559115</v>
@@ -26456,7 +26456,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="P4" t="n">
         <v>29432.2870559115</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83500.91540579038</v>
+        <v>83500.91540579018</v>
       </c>
       <c r="C6" t="n">
         <v>232909.0405924336</v>
       </c>
       <c r="D6" t="n">
-        <v>256315.8742660459</v>
+        <v>256315.8742660458</v>
       </c>
       <c r="E6" t="n">
-        <v>140753.3767874122</v>
+        <v>140702.3461252278</v>
       </c>
       <c r="F6" t="n">
-        <v>356492.7333440529</v>
+        <v>356441.7026818685</v>
       </c>
       <c r="G6" t="n">
-        <v>356492.7333440527</v>
+        <v>356441.7026818683</v>
       </c>
       <c r="H6" t="n">
-        <v>356492.7333440527</v>
+        <v>356441.7026818683</v>
       </c>
       <c r="I6" t="n">
-        <v>356492.7333440526</v>
+        <v>356441.7026818683</v>
       </c>
       <c r="J6" t="n">
-        <v>229915.4647637639</v>
+        <v>229864.4341015796</v>
       </c>
       <c r="K6" t="n">
-        <v>337846.1329870328</v>
+        <v>337795.1023248484</v>
       </c>
       <c r="L6" t="n">
-        <v>356492.7333440527</v>
+        <v>356441.7026818682</v>
       </c>
       <c r="M6" t="n">
-        <v>176428.861888885</v>
+        <v>176377.8312267007</v>
       </c>
       <c r="N6" t="n">
-        <v>356492.7333440527</v>
+        <v>356441.7026818684</v>
       </c>
       <c r="O6" t="n">
-        <v>356492.7333440529</v>
+        <v>356441.7026818684</v>
       </c>
       <c r="P6" t="n">
-        <v>356492.7333440526</v>
+        <v>356441.7026818685</v>
       </c>
     </row>
   </sheetData>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>390.3743495457175</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>266.2210958770918</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>173.5654753938913</v>
+        <v>229.2787209549455</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.3945739651546</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>7.743021135053027</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27675,13 +27675,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27776,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>134.4062914546842</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>276.5769850937016</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>342.9323154271057</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>226.4593363808663</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>36.74534024663697</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-7.851904691651628e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30468,7 +30468,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30662,7 +30662,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30884,7 +30884,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2.757261086117069e-12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>483.7766911539678</v>
@@ -34707,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>464.23015817805</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539678</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34719,10 +34719,10 @@
         <v>483.7766911539678</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
+        <v>390.5700052857315</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>483.7766911539678</v>
-      </c>
-      <c r="O3" t="n">
-        <v>108.6062353448195</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34871,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>72.14114201029115</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598446</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
       <c r="N6" t="n">
-        <v>238.1458997847902</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>415.010189472638</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>444.605878150503</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>333.1613907719473</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35734,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>130.1896540801013</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>616.220827727605</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>385.2564605346102</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127374</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36138,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>669.9344844018683</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36284,7 +36284,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115391</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36360,13 +36360,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>551.8435622166962</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36852,7 +36852,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6225309666485</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37071,10 +37071,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953542</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0.3921559610386215</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937787</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37791,19 +37791,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>357.4788798574156</v>
       </c>
       <c r="O41" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>422.5024167557669</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391567</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N44" t="n">
-        <v>713.9484244620658</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38037,7 +38037,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.3493785286307</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,7 +38180,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115389</v>
       </c>
       <c r="M46" t="n">
         <v>395.137166636617</v>
